--- a/TextInfo/excel/Role.xlsx
+++ b/TextInfo/excel/Role.xlsx
@@ -323,10 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剑客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>avatar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,10 +339,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attack_speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mag_attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,31 +364,39 @@
     <t>Tough</t>
   </si>
   <si>
-    <t>jianxian05/jianxian05_base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>roletype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>luoli/luoli_base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skills</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000101|1000102|1000103|1000104|1000105|1000106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000201|1000202|1000203|1000204|1000205|1000206</t>
+    <t>矮人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airen/airen_base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fujiangdjfs/fujiangdjfs_base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010|10011|10012|10020|10021|10022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030|10031|10040</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -774,21 +774,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="20.25" customWidth="1"/>
     <col min="8" max="8" width="16.125" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="14.75" customWidth="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="11" max="12" width="12.125" customWidth="1"/>
     <col min="13" max="13" width="11.5" customWidth="1"/>
     <col min="14" max="14" width="16.5" customWidth="1"/>
     <col min="15" max="15" width="5.75" customWidth="1"/>
@@ -800,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -809,43 +808,43 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -859,10 +858,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>500</v>
@@ -883,19 +882,19 @@
         <v>3.5</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="M2">
-        <v>0.2</v>
+        <v>100</v>
       </c>
       <c r="N2">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="O2">
-        <v>0.4</v>
+        <v>30</v>
       </c>
       <c r="P2">
-        <v>0.3</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>21</v>
@@ -912,22 +911,22 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>500</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>20</v>
@@ -936,19 +935,19 @@
         <v>3.5</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="M3">
-        <v>0.2</v>
+        <v>100</v>
       </c>
       <c r="N3">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>0.4</v>
+        <v>30</v>
       </c>
       <c r="P3">
-        <v>0.3</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>22</v>

--- a/TextInfo/excel/Role.xlsx
+++ b/TextInfo/excel/Role.xlsx
@@ -309,7 +309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>roleID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,6 +397,14 @@
   </si>
   <si>
     <t>10030|10031|10040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝莉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luoli/luoli_base</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -950,6 +958,59 @@
         <v>20</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>10003</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>500</v>
+      </c>
+      <c r="G4">
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>3.5</v>
+      </c>
+      <c r="L4">
+        <v>60</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/TextInfo/excel/Role.xlsx
+++ b/TextInfo/excel/Role.xlsx
@@ -783,7 +783,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -881,10 +881,10 @@
         <v>10</v>
       </c>
       <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2">
         <v>20</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
       </c>
       <c r="K2">
         <v>3.5</v>
